--- a/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
+++ b/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CBM_C3_C4_Metabolism\1.RuBisCO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F43140-097D-486C-BA14-28A2D2DADDC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14895" yWindow="2250" windowWidth="13515" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3697,8 +3711,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3761,6 +3775,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3807,7 +3829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3839,9 +3861,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,6 +3913,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4048,14 +4106,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="109.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +4145,7 @@
         <v>24.21390145605805</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4094,7 +4159,7 @@
         <v>48.4278029121161</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4108,7 +4173,7 @@
         <v>48.4278029121161</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4136,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4150,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4164,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4178,7 +4243,7 @@
         <v>96.8556058242322</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4189,10 +4254,10 @@
         <v>1147</v>
       </c>
       <c r="D10">
-        <v>46.31579482186797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>46.315794821867968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4203,10 +4268,10 @@
         <v>1147</v>
       </c>
       <c r="D11">
-        <v>72.64170436817415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>72.641704368174146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4217,10 +4282,10 @@
         <v>1148</v>
       </c>
       <c r="D12">
-        <v>21.14476643721661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>22.20200475907744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -4231,10 +4296,10 @@
         <v>1149</v>
       </c>
       <c r="D13">
-        <v>46.04080524795233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>46.040805247952328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4245,10 +4310,10 @@
         <v>1148</v>
       </c>
       <c r="D14">
-        <v>46.03522576649539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>46.035225766495387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -4262,7 +4327,7 @@
         <v>18.58092129352201</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -4276,7 +4341,7 @@
         <v>10.06217267577431</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4290,7 +4355,7 @@
         <v>10.06217267577431</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -4304,7 +4369,7 @@
         <v>7.760636574785698</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4318,7 +4383,7 @@
         <v>7.751569917418168</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -4332,7 +4397,7 @@
         <v>7.751569917418168</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -4346,7 +4411,7 @@
         <v>7.751569917418168</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -4360,7 +4425,7 @@
         <v>15.51220649220387</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -4374,7 +4439,7 @@
         <v>7.747036588734403</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -4385,10 +4450,10 @@
         <v>1148</v>
       </c>
       <c r="D24">
-        <v>23.25924308093827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>23.259243080938269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -4399,10 +4464,10 @@
         <v>1151</v>
       </c>
       <c r="D25">
-        <v>2.30153610098861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2.3015361009886099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -4413,10 +4478,10 @@
         <v>1151</v>
       </c>
       <c r="D26">
-        <v>1.534357400659076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1.5343574006590761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -4427,10 +4492,10 @@
         <v>1151</v>
       </c>
       <c r="D27">
-        <v>1.534357400659076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>1.5343574006590761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -4441,10 +4506,10 @@
         <v>1151</v>
       </c>
       <c r="D28">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4455,10 +4520,10 @@
         <v>1151</v>
       </c>
       <c r="D29">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -4472,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -4486,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -4500,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -4514,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -4528,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -4542,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -4556,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -4570,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -4584,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -4598,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -4612,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -4623,10 +4688,10 @@
         <v>1154</v>
       </c>
       <c r="D41">
-        <v>0.7671787003295372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.76717870032953717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4637,10 +4702,10 @@
         <v>1154</v>
       </c>
       <c r="D42">
-        <v>0.7671787003295372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.76717870032953717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -4654,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -4668,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -4682,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -4693,10 +4758,10 @@
         <v>1157</v>
       </c>
       <c r="D46">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -4707,10 +4772,10 @@
         <v>1158</v>
       </c>
       <c r="D47">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -4721,10 +4786,10 @@
         <v>1155</v>
       </c>
       <c r="D48">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -4735,10 +4800,10 @@
         <v>1155</v>
       </c>
       <c r="D49">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -4752,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -4766,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -4780,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -4794,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -4808,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -4822,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -4836,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4850,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -4864,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -4878,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -4889,10 +4954,10 @@
         <v>1162</v>
       </c>
       <c r="D60">
-        <v>-0.2660715219779388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.26607152197793882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -4903,10 +4968,10 @@
         <v>1163</v>
       </c>
       <c r="D61">
-        <v>-0.5091276829459588</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.50912768294595878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -4917,10 +4982,10 @@
         <v>1163</v>
       </c>
       <c r="D62">
-        <v>-0.5091276829459588</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.50912768294595878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -4931,10 +4996,10 @@
         <v>1164</v>
       </c>
       <c r="D63">
-        <v>-1.121464544442137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-1.1214645444421369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,10 +5010,10 @@
         <v>1164</v>
       </c>
       <c r="D64">
-        <v>1.121464544442137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>1.1214645444421369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -4962,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -4976,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -4990,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -5001,10 +5066,10 @@
         <v>1164</v>
       </c>
       <c r="D68">
-        <v>-0.005579481456948088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-5.5794814569480877E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -5018,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -5032,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -5046,7 +5111,7 @@
         <v>0.1741128037927839</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -5060,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -5074,7 +5139,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -5088,7 +5153,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -5102,7 +5167,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -5116,7 +5181,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -5130,7 +5195,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -5144,7 +5209,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -5158,7 +5223,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -5186,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -5200,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -5214,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -5228,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -5242,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,10 +5318,10 @@
         <v>1167</v>
       </c>
       <c r="D86">
-        <v>-0.7461555280375208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.74615552803752083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -5270,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -5281,10 +5346,10 @@
         <v>1170</v>
       </c>
       <c r="D88">
-        <v>0.2265800145849023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.22658001458490229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -5295,10 +5360,10 @@
         <v>1171</v>
       </c>
       <c r="D89">
-        <v>0.2265800145849023</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.22658001458490229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -5312,7 +5377,7 @@
         <v>0.1132900072924512</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -5323,10 +5388,10 @@
         <v>1171</v>
       </c>
       <c r="D91">
-        <v>0.7552667152830077</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.75526671528300771</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -5337,10 +5402,10 @@
         <v>1172</v>
       </c>
       <c r="D92">
-        <v>2.114476643721661</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -5351,10 +5416,10 @@
         <v>1172</v>
       </c>
       <c r="D93">
-        <v>2.114476643721661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -5365,10 +5430,10 @@
         <v>1172</v>
       </c>
       <c r="D94">
-        <v>2.114476643721661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -5379,10 +5444,10 @@
         <v>1172</v>
       </c>
       <c r="D95">
-        <v>1.05723832186083</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1.0572383218608301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -5396,7 +5461,7 @@
         <v>1.090017775420365</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -5407,10 +5472,10 @@
         <v>1172</v>
       </c>
       <c r="D97">
-        <v>1.059330627407184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1.0593306274071841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -5421,10 +5486,10 @@
         <v>1172</v>
       </c>
       <c r="D98">
-        <v>1.059330627407184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.0593306274071841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -5435,10 +5500,10 @@
         <v>1172</v>
       </c>
       <c r="D99">
-        <v>1.059330627407184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.0593306274071841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -5449,10 +5514,10 @@
         <v>1172</v>
       </c>
       <c r="D100">
-        <v>1.059330627407184</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.0593306274071841</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -5463,10 +5528,10 @@
         <v>1173</v>
       </c>
       <c r="D101">
-        <v>1.024458868301296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -5477,10 +5542,10 @@
         <v>1172</v>
       </c>
       <c r="D102">
-        <v>1.024458868301296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -5491,10 +5556,10 @@
         <v>1172</v>
       </c>
       <c r="D103">
-        <v>0.9287349403225441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>0.92873494032254411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -5505,10 +5570,10 @@
         <v>1172</v>
       </c>
       <c r="D104">
-        <v>1.024458868301296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -5522,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -5536,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -5550,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -5564,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -5578,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -5589,10 +5654,10 @@
         <v>1175</v>
       </c>
       <c r="D110">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -5603,10 +5668,10 @@
         <v>1175</v>
       </c>
       <c r="D111">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -5617,10 +5682,10 @@
         <v>1175</v>
       </c>
       <c r="D112">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -5631,10 +5696,10 @@
         <v>1175</v>
       </c>
       <c r="D113">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -5645,10 +5710,10 @@
         <v>1175</v>
       </c>
       <c r="D114">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -5659,10 +5724,10 @@
         <v>1175</v>
       </c>
       <c r="D115">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -5673,10 +5738,10 @@
         <v>1175</v>
       </c>
       <c r="D116">
-        <v>0.009066657367530906</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>9.0666573675309056E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -5687,10 +5752,10 @@
         <v>1176</v>
       </c>
       <c r="D117">
-        <v>0.004533328683765452</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>4.5333286837654519E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -5701,10 +5766,10 @@
         <v>1168</v>
       </c>
       <c r="D118">
-        <v>-0.05081004244018972</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>-5.0810042440189718E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -5718,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -5732,7 +5797,7 @@
         <v>0.1756050604638538</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -5746,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -5760,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -5774,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -5788,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -5802,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -5816,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -5830,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -5844,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -5858,7 +5923,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -5872,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -5886,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -5900,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -5914,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -5925,10 +5990,10 @@
         <v>1177</v>
       </c>
       <c r="D134">
-        <v>0.006625634230118737</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>6.6256342301187366E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -5942,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -5956,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -5967,10 +6032,10 @@
         <v>1179</v>
       </c>
       <c r="D137">
-        <v>1.50412169609136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1.5041216960913599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -5981,10 +6046,10 @@
         <v>1179</v>
       </c>
       <c r="D138">
-        <v>0.8023991770264745</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>0.80239917702647445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -5998,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -6009,10 +6074,10 @@
         <v>1180</v>
       </c>
       <c r="D140">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -6023,10 +6088,10 @@
         <v>1180</v>
       </c>
       <c r="D141">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -6040,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -6054,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -6068,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -6082,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -6096,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -6110,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -6121,10 +6186,10 @@
         <v>1183</v>
       </c>
       <c r="D148">
-        <v>1.027484204418679</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>1.0274842044186789</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -6135,10 +6200,10 @@
         <v>1183</v>
       </c>
       <c r="D149">
-        <v>-0.499525771555528</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>-0.49952577155552802</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -6149,10 +6214,10 @@
         <v>1183</v>
       </c>
       <c r="D150">
-        <v>0.527958432863151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>0.52795843286315103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -6163,10 +6228,10 @@
         <v>1184</v>
       </c>
       <c r="D151">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -6177,10 +6242,10 @@
         <v>1184</v>
       </c>
       <c r="D152">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -6191,10 +6256,10 @@
         <v>1184</v>
       </c>
       <c r="D153">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -6205,10 +6270,10 @@
         <v>1184</v>
       </c>
       <c r="D154">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -6219,10 +6284,10 @@
         <v>1185</v>
       </c>
       <c r="D155">
-        <v>0.2660715219779388</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>0.26607152197793882</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -6233,10 +6298,10 @@
         <v>1185</v>
       </c>
       <c r="D156">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -6250,7 +6315,7 @@
         <v>0.1949331334019149</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -6264,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -6278,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -6289,10 +6354,10 @@
         <v>1187</v>
       </c>
       <c r="D160">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -6303,10 +6368,10 @@
         <v>1187</v>
       </c>
       <c r="D161">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -6317,10 +6382,10 @@
         <v>1187</v>
       </c>
       <c r="D162">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -6331,10 +6396,10 @@
         <v>1187</v>
       </c>
       <c r="D163">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -6345,10 +6410,10 @@
         <v>1188</v>
       </c>
       <c r="D164">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -6359,10 +6424,10 @@
         <v>1187</v>
       </c>
       <c r="D165">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -6373,10 +6438,10 @@
         <v>1187</v>
       </c>
       <c r="D166">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -6387,10 +6452,10 @@
         <v>1187</v>
       </c>
       <c r="D167">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -6401,10 +6466,10 @@
         <v>1189</v>
       </c>
       <c r="D168">
-        <v>0.006974351821169456</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>6.9743518211694564E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -6415,10 +6480,10 @@
         <v>1190</v>
       </c>
       <c r="D169">
-        <v>0.03522047669694698</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>3.522047669694698E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -6432,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -6443,10 +6508,10 @@
         <v>1191</v>
       </c>
       <c r="D171">
-        <v>0.04358969888236003</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>4.3589698882360028E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -6460,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -6471,10 +6536,10 @@
         <v>1191</v>
       </c>
       <c r="D173">
-        <v>-0.09275887922165327</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>-9.2758879221653268E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -6488,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -6502,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -6516,7 +6581,7 @@
         <v>0.161107527069203</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -6530,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -6544,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -6558,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -6569,10 +6634,10 @@
         <v>1192</v>
       </c>
       <c r="D180">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -6586,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -6600,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -6611,10 +6676,10 @@
         <v>1192</v>
       </c>
       <c r="D183">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -6628,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -6639,10 +6704,10 @@
         <v>1193</v>
       </c>
       <c r="D185">
-        <v>-0.660633298624731</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>-0.66063329862473097</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -6656,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -6670,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -6681,10 +6746,10 @@
         <v>1193</v>
       </c>
       <c r="D188">
-        <v>0.5244712569525559</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>0.52447125695255592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -6698,7 +6763,7 @@
         <v>0.2477026118539635</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -6712,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -6726,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -6740,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -6754,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -6768,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -6779,10 +6844,10 @@
         <v>1195</v>
       </c>
       <c r="D195">
-        <v>0.1509947169284848</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>0.15099471692848479</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -6793,10 +6858,10 @@
         <v>1195</v>
       </c>
       <c r="D196">
-        <v>0.5345840670932634</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>0.53458406709326345</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -6810,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -6821,10 +6886,10 @@
         <v>1196</v>
       </c>
       <c r="D198">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -6835,10 +6900,10 @@
         <v>1196</v>
       </c>
       <c r="D199">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -6852,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -6866,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -6880,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -6891,10 +6956,10 @@
         <v>1197</v>
       </c>
       <c r="D203">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -6905,10 +6970,10 @@
         <v>1197</v>
       </c>
       <c r="D204">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -6919,10 +6984,10 @@
         <v>1197</v>
       </c>
       <c r="D205">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -6933,10 +6998,10 @@
         <v>1197</v>
       </c>
       <c r="D206">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -6947,10 +7012,10 @@
         <v>1197</v>
       </c>
       <c r="D207">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -6961,10 +7026,10 @@
         <v>1197</v>
       </c>
       <c r="D208">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -6975,10 +7040,10 @@
         <v>1197</v>
       </c>
       <c r="D209">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -6989,10 +7054,10 @@
         <v>1197</v>
       </c>
       <c r="D210">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -7003,10 +7068,10 @@
         <v>1197</v>
       </c>
       <c r="D211">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -7017,10 +7082,10 @@
         <v>1197</v>
       </c>
       <c r="D212">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -7031,10 +7096,10 @@
         <v>1198</v>
       </c>
       <c r="D213">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -7045,10 +7110,10 @@
         <v>1199</v>
       </c>
       <c r="D214">
-        <v>0.01673844437082628</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>1.6738444370826281E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -7059,10 +7124,10 @@
         <v>1198</v>
       </c>
       <c r="D215">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -7073,10 +7138,10 @@
         <v>1198</v>
       </c>
       <c r="D216">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -7087,10 +7152,10 @@
         <v>1198</v>
       </c>
       <c r="D217">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -7101,10 +7166,10 @@
         <v>1198</v>
       </c>
       <c r="D218">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -7115,10 +7180,10 @@
         <v>1200</v>
       </c>
       <c r="D219">
-        <v>0.01255383327811972</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>1.255383327811972E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -7129,10 +7194,10 @@
         <v>1200</v>
       </c>
       <c r="D220">
-        <v>0.01255383327811972</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>1.255383327811972E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -7143,10 +7208,10 @@
         <v>1200</v>
       </c>
       <c r="D221">
-        <v>0.01255383327811972</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>1.255383327811972E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -7157,10 +7222,10 @@
         <v>1201</v>
       </c>
       <c r="D222">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -7171,10 +7236,10 @@
         <v>1201</v>
       </c>
       <c r="D223">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -7185,10 +7250,10 @@
         <v>1201</v>
       </c>
       <c r="D224">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -7199,10 +7264,10 @@
         <v>1201</v>
       </c>
       <c r="D225">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -7213,10 +7278,10 @@
         <v>1201</v>
       </c>
       <c r="D226">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -7227,10 +7292,10 @@
         <v>1201</v>
       </c>
       <c r="D227">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -7241,10 +7306,10 @@
         <v>1202</v>
       </c>
       <c r="D228">
-        <v>0.0366153470611825</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>3.6615347061182503E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -7255,10 +7320,10 @@
         <v>1203</v>
       </c>
       <c r="D229">
-        <v>0.0366153470611825</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>3.6615347061182503E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -7269,10 +7334,10 @@
         <v>1203</v>
       </c>
       <c r="D230">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -7286,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -7297,10 +7362,10 @@
         <v>1203</v>
       </c>
       <c r="D232">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -7311,10 +7376,10 @@
         <v>1203</v>
       </c>
       <c r="D233">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -7325,10 +7390,10 @@
         <v>1203</v>
       </c>
       <c r="D234">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -7339,10 +7404,10 @@
         <v>1203</v>
       </c>
       <c r="D235">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -7353,10 +7418,10 @@
         <v>1204</v>
       </c>
       <c r="D236">
-        <v>0.03033843042212265</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>3.0338430422122649E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -7370,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -7381,10 +7446,10 @@
         <v>1204</v>
       </c>
       <c r="D238">
-        <v>0.03033843042212265</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>3.0338430422122649E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -7395,10 +7460,10 @@
         <v>1205</v>
       </c>
       <c r="D239">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -7409,10 +7474,10 @@
         <v>1205</v>
       </c>
       <c r="D240">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -7423,10 +7488,10 @@
         <v>1206</v>
       </c>
       <c r="D241">
-        <v>0.002441023137412166</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>2.4410231374121659E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -7437,10 +7502,10 @@
         <v>1205</v>
       </c>
       <c r="D242">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -7451,10 +7516,10 @@
         <v>1206</v>
       </c>
       <c r="D243">
-        <v>-0.002441023137412166</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>-2.4410231374121659E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -7468,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -7482,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -7496,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -7507,10 +7572,10 @@
         <v>1207</v>
       </c>
       <c r="D247">
-        <v>0.005928199048000977</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>5.9281990480009768E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -7521,10 +7586,10 @@
         <v>1207</v>
       </c>
       <c r="D248">
-        <v>0.005928199048000977</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>5.9281990480009768E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -7535,10 +7600,10 @@
         <v>1208</v>
       </c>
       <c r="D249">
-        <v>0.00383589350164769</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>3.8358935016476899E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -7552,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -7566,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -7580,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -7594,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -7608,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -7622,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -7636,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -7650,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -7664,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -7678,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -7692,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -7706,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -7720,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -7734,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -7748,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -7762,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -7776,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -7790,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -7804,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -7818,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -7832,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -7846,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -7860,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -7871,10 +7936,10 @@
         <v>1213</v>
       </c>
       <c r="D273">
-        <v>0.02789740728471048</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>2.789740728471048E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -7885,10 +7950,10 @@
         <v>1214</v>
       </c>
       <c r="D274">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -7899,10 +7964,10 @@
         <v>1214</v>
       </c>
       <c r="D275">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -7913,10 +7978,10 @@
         <v>1214</v>
       </c>
       <c r="D276">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -7927,10 +7992,10 @@
         <v>1214</v>
       </c>
       <c r="D277">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -7941,10 +8006,10 @@
         <v>1214</v>
       </c>
       <c r="D278">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -7955,10 +8020,10 @@
         <v>1214</v>
       </c>
       <c r="D279">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -7969,10 +8034,10 @@
         <v>1215</v>
       </c>
       <c r="D280">
-        <v>0.002092305546353286</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>2.092305546353286E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -7983,10 +8048,10 @@
         <v>1216</v>
       </c>
       <c r="D281">
-        <v>0.008369222185413142</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>8.3692221854131423E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -8000,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -8014,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -8028,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -8042,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -8056,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -8070,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -8084,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -8098,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -8109,10 +8174,10 @@
         <v>1217</v>
       </c>
       <c r="D290">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -8123,10 +8188,10 @@
         <v>1217</v>
       </c>
       <c r="D291">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
@@ -8137,10 +8202,10 @@
         <v>1218</v>
       </c>
       <c r="D292">
-        <v>-1.069202670929277e-14</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>-1.069202670929277E-14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
@@ -8151,10 +8216,10 @@
         <v>1218</v>
       </c>
       <c r="D293">
-        <v>-1.069202670929277e-14</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>-1.069202670929277E-14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
@@ -8165,10 +8230,10 @@
         <v>1218</v>
       </c>
       <c r="D294">
-        <v>-1.069202670929277e-14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>-1.069202670929277E-14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
@@ -8179,10 +8244,10 @@
         <v>1219</v>
       </c>
       <c r="D295">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
@@ -8193,10 +8258,10 @@
         <v>1219</v>
       </c>
       <c r="D296">
-        <v>0.00139487036422736</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>1.39487036422736E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
@@ -8210,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
@@ -8224,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
@@ -8238,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
@@ -8252,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
@@ -8266,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
@@ -8280,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
@@ -8291,10 +8356,10 @@
         <v>1222</v>
       </c>
       <c r="D303">
-        <v>0.004984772129223198</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>4.9847721292231983E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
@@ -8308,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
@@ -8319,10 +8384,10 @@
         <v>1222</v>
       </c>
       <c r="D305">
-        <v>-1.069202670929277e-14</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>-1.069202670929277E-14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>307</v>
       </c>
@@ -8336,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
@@ -8350,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
@@ -8364,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
@@ -8378,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
@@ -8392,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>312</v>
       </c>
@@ -8406,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
@@ -8420,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
@@ -8434,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>315</v>
       </c>
@@ -8448,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>316</v>
       </c>
@@ -8459,10 +8524,10 @@
         <v>1222</v>
       </c>
       <c r="D315">
-        <v>-1.069202670929277e-14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+        <v>-1.069202670929277E-14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>317</v>
       </c>
@@ -8473,10 +8538,10 @@
         <v>1222</v>
       </c>
       <c r="D316">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
@@ -8487,10 +8552,10 @@
         <v>1222</v>
       </c>
       <c r="D317">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
@@ -8504,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
@@ -8518,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>321</v>
       </c>
@@ -8532,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>322</v>
       </c>
@@ -8546,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
@@ -8560,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
@@ -8571,10 +8636,10 @@
         <v>1223</v>
       </c>
       <c r="D323">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
@@ -8585,10 +8650,10 @@
         <v>1223</v>
       </c>
       <c r="D324">
-        <v>0.527958432863151</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
+        <v>0.52795843286315103</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
@@ -8602,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
@@ -8613,10 +8678,10 @@
         <v>1223</v>
       </c>
       <c r="D326">
-        <v>0.7461555280375062</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>0.74615552803750618</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
@@ -8627,10 +8692,10 @@
         <v>1223</v>
       </c>
       <c r="D327">
-        <v>-0.03023570456772378</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
+        <v>-3.023570456772378E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
@@ -8644,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
@@ -8655,10 +8720,10 @@
         <v>1223</v>
       </c>
       <c r="D329">
-        <v>0.03023570456775038</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
+        <v>3.023570456775038E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
@@ -8672,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
@@ -8683,10 +8748,10 @@
         <v>1223</v>
       </c>
       <c r="D331">
-        <v>-5.995204332975845e-15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+        <v>-5.9952043329758453E-15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
@@ -8697,10 +8762,10 @@
         <v>1223</v>
       </c>
       <c r="D332">
-        <v>-0.6123368614961784</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+        <v>-0.61233686149617839</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
@@ -8711,10 +8776,10 @@
         <v>1223</v>
       </c>
       <c r="D333">
-        <v>1.888643244771674</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
+        <v>1.8886432447716739</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
@@ -8725,10 +8790,10 @@
         <v>1223</v>
       </c>
       <c r="D334">
-        <v>0.7671787003295372</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+        <v>0.76717870032953717</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
@@ -8739,10 +8804,10 @@
         <v>1223</v>
       </c>
       <c r="D335">
-        <v>0.06894335717525152</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>6.8943357175251518E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
@@ -8753,10 +8818,10 @@
         <v>1223</v>
       </c>
       <c r="D336">
-        <v>2.114476643721661</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
@@ -8767,10 +8832,10 @@
         <v>1223</v>
       </c>
       <c r="D337">
-        <v>1.024458868301296</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
@@ -8781,10 +8846,10 @@
         <v>1223</v>
       </c>
       <c r="D338">
-        <v>-0.7671787003295381</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>-0.76717870032953805</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
@@ -8798,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
@@ -8812,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
@@ -8826,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
@@ -8840,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
@@ -8854,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
@@ -8865,10 +8930,10 @@
         <v>1223</v>
       </c>
       <c r="D344">
-        <v>0.2500305127892163</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>0.25003051278921629</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
@@ -8882,7 +8947,7 @@
         <v>0.2444510313322773</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
@@ -8896,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
@@ -8907,10 +8972,10 @@
         <v>1223</v>
       </c>
       <c r="D347">
-        <v>0.1611075270692039</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>0.16110752706920389</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
@@ -8924,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
@@ -8938,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
@@ -8952,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
@@ -8966,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
@@ -8980,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
@@ -8994,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
@@ -9008,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
@@ -9022,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
@@ -9036,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
@@ -9050,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
@@ -9064,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
@@ -9078,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
@@ -9092,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
@@ -9106,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
@@ -9120,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
@@ -9134,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
@@ -9148,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
@@ -9162,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
@@ -9173,10 +9238,10 @@
         <v>1223</v>
       </c>
       <c r="D366">
-        <v>0.006974351821169456</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
+        <v>6.9743518211694564E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
@@ -9187,10 +9252,10 @@
         <v>1223</v>
       </c>
       <c r="D367">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
@@ -9204,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
@@ -9218,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
@@ -9232,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
@@ -9243,10 +9308,10 @@
         <v>1223</v>
       </c>
       <c r="D371">
-        <v>2.118661254814367</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
+        <v>2.1186612548143668</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
@@ -9257,10 +9322,10 @@
         <v>1223</v>
       </c>
       <c r="D372">
-        <v>-22.09942481233639</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
+        <v>-22.099424812336391</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
@@ -9274,7 +9339,7 @@
         <v>0.1132900072924512</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
@@ -9285,10 +9350,10 @@
         <v>1223</v>
       </c>
       <c r="D374">
-        <v>1.05723832186083</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
+        <v>1.0572383218608301</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
@@ -9299,10 +9364,10 @@
         <v>1223</v>
       </c>
       <c r="D375">
-        <v>21.11547415956766</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>21.115474159567661</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
@@ -9313,10 +9378,10 @@
         <v>1223</v>
       </c>
       <c r="D376">
-        <v>-1.220438154476387</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
+        <v>-1.2204381544763869</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
@@ -9327,10 +9392,10 @@
         <v>1223</v>
       </c>
       <c r="D377">
-        <v>18.23519533664139</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+        <v>18.235195336641389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
@@ -9344,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
@@ -9355,10 +9420,10 @@
         <v>1223</v>
       </c>
       <c r="D379">
-        <v>-2.114476643721661</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>-2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
@@ -9369,10 +9434,10 @@
         <v>1223</v>
       </c>
       <c r="D380">
-        <v>0.09572392797875151</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>9.5723927978751511E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
@@ -9386,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
@@ -9397,10 +9462,10 @@
         <v>1223</v>
       </c>
       <c r="D382">
-        <v>-0.8116280155532254</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
+        <v>-0.81162801555322539</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
@@ -9414,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
@@ -9428,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
@@ -9439,10 +9504,10 @@
         <v>1223</v>
       </c>
       <c r="D385">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
@@ -9456,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
@@ -9470,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
@@ -9484,7 +9549,7 @@
         <v>0.223281984132083</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
@@ -9498,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
@@ -9512,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
@@ -9526,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
@@ -9537,10 +9602,10 @@
         <v>1223</v>
       </c>
       <c r="D392">
-        <v>2.114476643721661</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
+        <v>2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
@@ -9551,10 +9616,10 @@
         <v>1223</v>
       </c>
       <c r="D393">
-        <v>-1.024458868301296</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+        <v>-1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
@@ -9565,10 +9630,10 @@
         <v>1223</v>
       </c>
       <c r="D394">
-        <v>0.9287349403225441</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
+        <v>0.92873494032254411</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
@@ -9579,10 +9644,10 @@
         <v>1223</v>
       </c>
       <c r="D395">
-        <v>-1.021493819544197</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
+        <v>-1.0214938195441969</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
@@ -9593,10 +9658,10 @@
         <v>1223</v>
       </c>
       <c r="D396">
-        <v>-0.9972588961987118</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
+        <v>-0.99725889619871178</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
@@ -9610,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
@@ -9624,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
@@ -9638,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
@@ -9649,10 +9714,10 @@
         <v>1223</v>
       </c>
       <c r="D400">
-        <v>0.09275887922165327</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
+        <v>9.2758879221653268E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
@@ -9666,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
@@ -9677,10 +9742,10 @@
         <v>1223</v>
       </c>
       <c r="D402">
-        <v>0.9972588961987118</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
+        <v>0.99725889619871178</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
@@ -9694,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
@@ -9705,10 +9770,10 @@
         <v>1223</v>
       </c>
       <c r="D404">
-        <v>-2.114476643721661</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+        <v>-2.1144766437216611</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
@@ -9722,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
@@ -9736,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
@@ -9750,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
@@ -9764,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
@@ -9778,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
@@ -9792,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
@@ -9806,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
@@ -9817,10 +9882,10 @@
         <v>1223</v>
       </c>
       <c r="D412">
-        <v>1.024458868301296</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
+        <v>1.0244588683012961</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
@@ -9834,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
@@ -9848,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
@@ -9862,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
@@ -9876,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
@@ -9890,7 +9955,7 @@
         <v>0.1949331334019149</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
@@ -9901,10 +9966,10 @@
         <v>1223</v>
       </c>
       <c r="D418">
-        <v>0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
+        <v>5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
@@ -9918,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
@@ -9932,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
@@ -9946,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
@@ -9957,10 +10022,10 @@
         <v>1223</v>
       </c>
       <c r="D422">
-        <v>0.001394870364235524</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>1.394870364235524E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
@@ -9974,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
@@ -9985,10 +10050,10 @@
         <v>1223</v>
       </c>
       <c r="D424">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>426</v>
       </c>
@@ -10002,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>427</v>
       </c>
@@ -10013,10 +10078,10 @@
         <v>1223</v>
       </c>
       <c r="D426">
-        <v>0.004184611092706571</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+        <v>4.1846110927065711E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>428</v>
       </c>
@@ -10030,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>429</v>
       </c>
@@ -10041,10 +10106,10 @@
         <v>1223</v>
       </c>
       <c r="D428">
-        <v>0.006276916639059857</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
+        <v>6.2769166390598567E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
@@ -10058,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
@@ -10072,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
@@ -10083,10 +10148,10 @@
         <v>1223</v>
       </c>
       <c r="D431">
-        <v>0.00383589350164769</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
+        <v>3.8358935016476899E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
@@ -10100,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
@@ -10114,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
@@ -10125,10 +10190,10 @@
         <v>1223</v>
       </c>
       <c r="D434">
-        <v>-0.005579481456942095</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
+        <v>-5.5794814569420951E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
@@ -10139,10 +10204,10 @@
         <v>1223</v>
       </c>
       <c r="D435">
-        <v>1.059330627407184</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
+        <v>1.0593306274071841</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
@@ -10153,10 +10218,10 @@
         <v>1223</v>
       </c>
       <c r="D436">
-        <v>0.02371279619200391</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
+        <v>2.3712796192003911E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
@@ -10170,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
@@ -10181,10 +10246,10 @@
         <v>1223</v>
       </c>
       <c r="D438">
-        <v>0.003138458319529928</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
+        <v>3.1384583195299279E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
@@ -10198,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
@@ -10209,10 +10274,10 @@
         <v>1223</v>
       </c>
       <c r="D440">
-        <v>0.002092305546353286</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
+        <v>2.092305546353286E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
@@ -10226,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
@@ -10237,10 +10302,10 @@
         <v>1223</v>
       </c>
       <c r="D442">
-        <v>0.008369222185413142</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
+        <v>8.3692221854131423E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
@@ -10254,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
@@ -10265,10 +10330,10 @@
         <v>1223</v>
       </c>
       <c r="D444">
-        <v>-0.06047140913546116</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
+        <v>-6.047140913546116E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
@@ -10282,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
@@ -10296,7 +10361,7 @@
         <v>0.2191947593462138</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
@@ -10310,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
@@ -10324,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
@@ -10335,10 +10400,10 @@
         <v>1223</v>
       </c>
       <c r="D449">
-        <v>1.154965666960671</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
+        <v>1.1549656669606709</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>451</v>
       </c>
@@ -10352,7 +10417,7 @@
         <v>-2.960451822405362</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>452</v>
       </c>
@@ -10363,10 +10428,10 @@
         <v>1223</v>
       </c>
       <c r="D451">
-        <v>0.6595604432527615</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+        <v>0.65956044325276153</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>453</v>
       </c>
@@ -10377,10 +10442,10 @@
         <v>1223</v>
       </c>
       <c r="D452">
-        <v>0.4088101389231653</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>0.40881013892316531</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>454</v>
       </c>
@@ -10391,10 +10456,10 @@
         <v>1223</v>
       </c>
       <c r="D453">
-        <v>-0.09572392797875147</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>-9.5723927978751469E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
@@ -10408,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>456</v>
       </c>
@@ -10422,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
@@ -10436,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
@@ -10450,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>459</v>
       </c>
@@ -10461,10 +10526,10 @@
         <v>1223</v>
       </c>
       <c r="D458">
-        <v>0.4791379701148449</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+        <v>0.47913797011484488</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>460</v>
       </c>
@@ -10478,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>461</v>
       </c>
@@ -10492,7 +10557,7 @@
         <v>193.7112116484644</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>462</v>
       </c>
@@ -10503,10 +10568,10 @@
         <v>1223</v>
       </c>
       <c r="D461">
-        <v>20.00000000000001</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
+        <v>20.000000000000011</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>463</v>
       </c>
@@ -10517,10 +10582,10 @@
         <v>1223</v>
       </c>
       <c r="D462">
-        <v>18.18335570937879</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
+        <v>18.183355709378791</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>464</v>
       </c>
@@ -10534,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>465</v>
       </c>
@@ -10545,10 +10610,10 @@
         <v>1223</v>
       </c>
       <c r="D464">
-        <v>0.527958432863151</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+        <v>0.52795843286315103</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>466</v>
       </c>
@@ -10562,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>467</v>
       </c>
@@ -10573,10 +10638,10 @@
         <v>1223</v>
       </c>
       <c r="D466">
-        <v>0.002441023137412167</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
+        <v>2.4410231374121672E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
@@ -10590,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
@@ -10601,10 +10666,10 @@
         <v>1223</v>
       </c>
       <c r="D468">
-        <v>20.92889648318311</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+        <v>20.928896483183109</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>470</v>
       </c>
@@ -10618,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>471</v>
       </c>
@@ -10632,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>472</v>
       </c>
@@ -10646,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>473</v>
       </c>
@@ -10660,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>474</v>
       </c>
@@ -10674,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
@@ -10688,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
@@ -10702,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
@@ -10716,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>478</v>
       </c>
@@ -10730,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>479</v>
       </c>
@@ -10744,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>480</v>
       </c>
@@ -10758,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>481</v>
       </c>
@@ -10772,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>482</v>
       </c>
@@ -10786,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
@@ -10800,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
@@ -10814,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
@@ -10828,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
@@ -10842,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
@@ -10856,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
@@ -10870,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
@@ -10884,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
@@ -10898,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
@@ -10912,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
@@ -10926,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
@@ -10940,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
@@ -10954,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
@@ -10968,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
@@ -10982,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>497</v>
       </c>
@@ -10996,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>498</v>
       </c>
@@ -11010,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>499</v>
       </c>
@@ -11024,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>500</v>
       </c>
@@ -11038,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>501</v>
       </c>
@@ -11052,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>502</v>
       </c>
@@ -11066,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>503</v>
       </c>
@@ -11080,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>504</v>
       </c>
@@ -11094,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>505</v>
       </c>
@@ -11108,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>506</v>
       </c>
@@ -11122,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>507</v>
       </c>
@@ -11136,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>508</v>
       </c>
@@ -11150,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>509</v>
       </c>
@@ -11164,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>510</v>
       </c>
@@ -11178,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>511</v>
       </c>
@@ -11192,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>512</v>
       </c>
@@ -11206,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>513</v>
       </c>
@@ -11220,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>514</v>
       </c>
@@ -11234,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>515</v>
       </c>
@@ -11248,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>516</v>
       </c>
@@ -11262,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>517</v>
       </c>
@@ -11276,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>518</v>
       </c>
@@ -11290,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>519</v>
       </c>
@@ -11304,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>520</v>
       </c>
@@ -11318,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>521</v>
       </c>
@@ -11332,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>522</v>
       </c>
@@ -11346,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>523</v>
       </c>
@@ -11360,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>524</v>
       </c>
@@ -11374,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>525</v>
       </c>
@@ -11388,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>526</v>
       </c>
@@ -11402,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>527</v>
       </c>
@@ -11416,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>528</v>
       </c>
@@ -11430,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>529</v>
       </c>
@@ -11444,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>530</v>
       </c>
@@ -11458,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>531</v>
       </c>
@@ -11472,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>532</v>
       </c>
@@ -11486,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>533</v>
       </c>
@@ -11500,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>534</v>
       </c>
@@ -11514,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>535</v>
       </c>
@@ -11528,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>536</v>
       </c>
@@ -11542,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>537</v>
       </c>
@@ -11556,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>538</v>
       </c>
@@ -11570,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>539</v>
       </c>
@@ -11584,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>540</v>
       </c>
@@ -11598,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>541</v>
       </c>
@@ -11612,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>542</v>
       </c>
@@ -11626,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>543</v>
       </c>
@@ -11640,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>544</v>
       </c>
@@ -11654,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>545</v>
       </c>
@@ -11668,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>546</v>
       </c>
@@ -11682,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>547</v>
       </c>
@@ -11696,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>548</v>
       </c>
@@ -11710,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>549</v>
       </c>
@@ -11724,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>550</v>
       </c>
@@ -11735,10 +11800,10 @@
         <v>1223</v>
       </c>
       <c r="D549">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>551</v>
       </c>
@@ -11752,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>552</v>
       </c>
@@ -11766,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>553</v>
       </c>
@@ -11777,10 +11842,10 @@
         <v>1223</v>
       </c>
       <c r="D552">
-        <v>0.7671787003295382</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
+        <v>0.76717870032953817</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>554</v>
       </c>
@@ -11794,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>555</v>
       </c>
@@ -11808,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>556</v>
       </c>
@@ -11822,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>557</v>
       </c>
@@ -11836,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>558</v>
       </c>
@@ -11847,10 +11912,10 @@
         <v>1224</v>
       </c>
       <c r="D557">
-        <v>0.05034997961749488</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
+        <v>5.0349979617494878E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>559</v>
       </c>
@@ -11864,7 +11929,7 @@
         <v>0.1527070832797445</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>560</v>
       </c>
@@ -11875,10 +11940,10 @@
         <v>1224</v>
       </c>
       <c r="D559">
-        <v>0.009111187245501572</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
+        <v>9.111187245501572E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>561</v>
       </c>
@@ -11892,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>562</v>
       </c>
@@ -11906,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>563</v>
       </c>
@@ -11920,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>564</v>
       </c>
@@ -11934,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>565</v>
       </c>
@@ -11948,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>566</v>
       </c>
@@ -11962,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>567</v>
       </c>
@@ -11973,10 +12038,10 @@
         <v>1223</v>
       </c>
       <c r="D566">
-        <v>0.3487175910588809</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+        <v>0.34871759105888089</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>568</v>
       </c>
@@ -11990,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>569</v>
       </c>
@@ -12004,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>570</v>
       </c>
@@ -12015,10 +12080,10 @@
         <v>1223</v>
       </c>
       <c r="D569">
-        <v>-0.08659508478475927</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
+        <v>-8.6595084784759274E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>571</v>
       </c>
@@ -12029,10 +12094,10 @@
         <v>1223</v>
       </c>
       <c r="D570">
-        <v>0.4088101389231665</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>0.40881013892316648</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>572</v>
       </c>
@@ -12046,7 +12111,7 @@
         <v>-0.2477026118539635</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>573</v>
       </c>
@@ -12057,10 +12122,10 @@
         <v>1223</v>
       </c>
       <c r="D572">
-        <v>0.04916918033929907</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+        <v>4.9169180339299068E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>574</v>
       </c>

--- a/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
+++ b/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CBM_C3_C4_Metabolism\1.RuBisCO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Modified_flux_solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F43140-097D-486C-BA14-28A2D2DADDC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0A6A7-DCBB-4E8C-9DE5-BD9648C139DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="2250" windowWidth="13515" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4109,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4282,7 @@
         <v>1148</v>
       </c>
       <c r="D12">
-        <v>22.20200475907744</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
+++ b/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Modified_flux_solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0A6A7-DCBB-4E8C-9DE5-BD9648C139DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC8637-95DD-4120-AADA-EF126732DF28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="13350" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4109,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4282,7 +4282,7 @@
         <v>1148</v>
       </c>
       <c r="D12">
-        <v>10.51</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
+++ b/notebooks/2019-05-06-mb-genC3/excel/flux_solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Modified_flux_solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC8637-95DD-4120-AADA-EF126732DF28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C8DA4-3ABC-4C08-84EF-43E7F282A9C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="13350" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="13350" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4110,7 +4110,7 @@
   <dimension ref="A1:D573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4282,7 @@
         <v>1148</v>
       </c>
       <c r="D12">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>1149</v>
       </c>
       <c r="D13">
-        <v>46.040805247952328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
         <v>1148</v>
       </c>
       <c r="D14">
-        <v>46.035225766495387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>1149</v>
       </c>
       <c r="D15">
-        <v>18.58092129352201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>1149</v>
       </c>
       <c r="D16">
-        <v>10.06217267577431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>1149</v>
       </c>
       <c r="D17">
-        <v>10.06217267577431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,7 +4366,7 @@
         <v>1150</v>
       </c>
       <c r="D18">
-        <v>7.760636574785698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
